--- a/src/test/resources/Documents/25915/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/25915/Base/JobPlanning.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="58">
   <si>
     <t>Component</t>
   </si>
@@ -62,89 +62,66 @@
     <t>PlannedResource</t>
   </si>
   <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>- P-Dinh</t>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>FGST - 2up</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Farmout 1</t>
-  </si>
-  <si>
-    <t>124</t>
+    <t>Bravo-T</t>
+  </si>
+  <si>
+    <t>45,000</t>
   </si>
   <si>
     <t>Not allocated</t>
   </si>
   <si>
-    <t>- Anderson</t>
-  </si>
-  <si>
-    <t>Farmout 2</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Liner  2p</t>
-  </si>
-  <si>
-    <t>Cut for Press</t>
-  </si>
-  <si>
-    <t>147</t>
+    <t>Bound Packed</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Main Shipping</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>Cover Saddle Stitch  4p</t>
+  </si>
+  <si>
+    <t>Post-Press Cut</t>
+  </si>
+  <si>
+    <t>Final Trim</t>
+  </si>
+  <si>
+    <t>7,603</t>
   </si>
   <si>
     <t>Cut for Press
 Final Trim</t>
   </si>
   <si>
-    <t>Outer wrap  2p</t>
-  </si>
-  <si>
-    <t>Print F 2x0</t>
+    <t>Score Inline F 1x0</t>
   </si>
   <si>
     <t>8CS 40" (#9)</t>
   </si>
   <si>
-    <t>182</t>
+    <t>7,621</t>
   </si>
   <si>
     <t>8CS 40" (#9)
 8CP 40" (#9)</t>
   </si>
   <si>
-    <t>Laminate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Farmout 1
-Farmout 2
-Farmout 3</t>
-  </si>
-  <si>
-    <t>Print F (Varnish 1x0)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Post-Press Cut</t>
-  </si>
-  <si>
-    <t>Final Trim</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Plate - Outer wrap  2p</t>
+    <t>Plate - Cover Saddle Stitch  4p</t>
   </si>
   <si>
     <t>Plate burn</t>
@@ -153,7 +130,65 @@
     <t>Galileo</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Plate - Text 12p</t>
+  </si>
+  <si>
+    <t>Plate - Text 24p / 12p - 1</t>
+  </si>
+  <si>
+    <t>Plate - Text 24p / 12p - 2</t>
+  </si>
+  <si>
+    <t>Text 12p</t>
+  </si>
+  <si>
+    <t>Print F 1x0</t>
+  </si>
+  <si>
+    <t>22,937</t>
+  </si>
+  <si>
+    <t>22,889</t>
+  </si>
+  <si>
+    <t>Fold</t>
+  </si>
+  <si>
+    <t>MBO 26"</t>
+  </si>
+  <si>
+    <t>45,613</t>
+  </si>
+  <si>
+    <t>MBO #2 26"
+MBO 26"</t>
+  </si>
+  <si>
+    <t>Text 12p - 1</t>
+  </si>
+  <si>
+    <t>Text 12p - 2</t>
+  </si>
+  <si>
+    <t>Text 12p - 3</t>
+  </si>
+  <si>
+    <t>Text 12p - 4</t>
+  </si>
+  <si>
+    <t>Text 24p / 12p - 1</t>
+  </si>
+  <si>
+    <t>45,857</t>
+  </si>
+  <si>
+    <t>45,763</t>
+  </si>
+  <si>
+    <t>Text 24p / 12p - 2</t>
   </si>
 </sst>
 </file>
@@ -161,13 +196,728 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="106">
+  <fonts count="249">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -715,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -822,6 +1572,149 @@
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -927,16 +1820,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="19">
         <v>18</v>
@@ -945,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="22">
         <v>18</v>
@@ -960,24 +1853,24 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="30">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -986,7 +1879,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="34">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s" s="35">
         <v>18</v>
@@ -1001,24 +1894,24 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="41">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="43">
         <v>18</v>
       </c>
       <c r="D5" t="s" s="44">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="45">
         <v>18</v>
@@ -1027,7 +1920,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s" s="47">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s" s="48">
         <v>18</v>
@@ -1042,24 +1935,24 @@
         <v>18</v>
       </c>
       <c r="L5" t="s" s="52">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s" s="53">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="54">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="55">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="56">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="57">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -1068,7 +1961,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="60">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="61">
         <v>18</v>
@@ -1083,24 +1976,24 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="67">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="68">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s" s="69">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="70">
         <v>37</v>
-      </c>
-      <c r="C7" t="s" s="69">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>31</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>18</v>
@@ -1124,24 +2017,24 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s" s="79">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="80">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="81">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="82">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="84">
         <v>18</v>
@@ -1150,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="86">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="87">
         <v>18</v>
@@ -1165,24 +2058,24 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="93">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="94">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="95">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="96">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s" s="97">
         <v>18</v>
@@ -1191,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="s" s="99">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="100">
         <v>18</v>
@@ -1206,10 +2099,461 @@
         <v>18</v>
       </c>
       <c r="L9" t="s" s="104">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s" s="105">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="106">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="107">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="108">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="109">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s" s="110">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="111">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s" s="112">
         <v>44</v>
       </c>
-      <c r="M9" t="s" s="105">
-        <v>44</v>
+      <c r="H10" t="s" s="113">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s" s="114">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s" s="115">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="116">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s" s="117">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s" s="118">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="119">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="120">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s" s="121">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s" s="122">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s" s="123">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="124">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s" s="125">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s" s="126">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="127">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s" s="128">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s" s="129">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s" s="130">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s" s="131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="132">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s" s="133">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s" s="134">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s" s="135">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s" s="136">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="137">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s" s="138">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s" s="139">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s" s="140">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s" s="141">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s" s="142">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s" s="143">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s" s="144">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="145">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="146">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s" s="147">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s" s="149">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="150">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s" s="151">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s" s="152">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s" s="153">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s" s="154">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s" s="155">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s" s="156">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s" s="157">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="158">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="159">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s" s="160">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="161">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s" s="162">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="163">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s" s="164">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s" s="165">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s" s="167">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s" s="168">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s" s="169">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s" s="170">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="171">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="172">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s" s="173">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s" s="174">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s" s="175">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="176">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s" s="177">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s" s="178">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s" s="179">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s" s="180">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s" s="181">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s" s="182">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s" s="183">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="184">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s" s="185">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="186">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s" s="187">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s" s="188">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="189">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s" s="190">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s" s="191">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s" s="192">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s" s="193">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s" s="194">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s" s="195">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s" s="196">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="197">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s" s="198">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="199">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s" s="200">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s" s="201">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="202">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s" s="203">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s" s="204">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s" s="205">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s" s="206">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s" s="207">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s" s="208">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s" s="209">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="210">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s" s="211">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s" s="212">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s" s="213">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s" s="214">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="215">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s" s="216">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s" s="217">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s" s="218">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s" s="219">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s" s="220">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s" s="221">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s" s="222">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="223">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s" s="224">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s" s="225">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s" s="226">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s" s="227">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="228">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s" s="229">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s" s="230">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s" s="231">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s" s="232">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s" s="233">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s" s="234">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s" s="235">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="236">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s" s="237">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="238">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s" s="239">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s" s="240">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="241">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s" s="242">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s" s="243">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s" s="244">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s" s="245">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s" s="246">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s" s="247">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s" s="248">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
